--- a/parlament 2.xlsx
+++ b/parlament 2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datascience-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015550DE-DA1F-4501-B6C7-F1F3B821B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF0C65-A7A6-499B-97AF-F882C4271B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Выборы в парламент" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="640">
   <si>
     <t>Строительство</t>
   </si>
@@ -1878,13 +1879,92 @@
   </si>
   <si>
     <t>1.00000</t>
+  </si>
+  <si>
+    <t>1.1. Кол-во населения (тыс)</t>
+  </si>
+  <si>
+    <t>2.2.ВРП на душу населения</t>
+  </si>
+  <si>
+    <t>2.3.1 Обрабатывающие производства</t>
+  </si>
+  <si>
+    <t>2.3.2 добыча полезных ископаемых</t>
+  </si>
+  <si>
+    <t>2.3.3 Транспортировка</t>
+  </si>
+  <si>
+    <t>2.3.4 Торговля</t>
+  </si>
+  <si>
+    <t>6.1. Количество кандидатов, участвующих в выборах</t>
+  </si>
+  <si>
+    <t>6.2.Кол-во самовыдвиженцев</t>
+  </si>
+  <si>
+    <t>6.3.Кол-во незарегистрированных кандидатов</t>
+  </si>
+  <si>
+    <t>СР голоса</t>
+  </si>
+  <si>
+    <t>Новые люди</t>
+  </si>
+  <si>
+    <t>Зеленая альтернатива</t>
+  </si>
+  <si>
+    <t>Тюменская обл.</t>
+  </si>
+  <si>
+    <t>Кемеровская обл.</t>
+  </si>
+  <si>
+    <t>Свердловская обл</t>
+  </si>
+  <si>
+    <t>Челябинская обл.</t>
+  </si>
+  <si>
+    <t>Республика Тыва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,765
+</t>
+  </si>
+  <si>
+    <t>Мурманская область</t>
+  </si>
+  <si>
+    <t>41,5</t>
+  </si>
+  <si>
+    <t>Курская область</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Республика Алтай</t>
+  </si>
+  <si>
+    <t>45,7</t>
+  </si>
+  <si>
+    <t>Вологодская область</t>
+  </si>
+  <si>
+    <t>49,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1946,8 +2026,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242423"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2008,8 +2118,20 @@
         <bgColor rgb="FFE5DFEC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2084,11 +2206,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2223,9 +2355,77 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{1FFBC598-B587-456C-A693-29FFE2FE1951}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2451,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF991"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
@@ -4287,10 +4487,890 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5897ABC9-C5F4-426D-B2DC-C522D966C029}">
+  <dimension ref="A1:AL10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.21875" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" customWidth="1"/>
+    <col min="24" max="24" width="24.44140625" customWidth="1"/>
+    <col min="25" max="25" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="18.88671875" customWidth="1"/>
+    <col min="27" max="27" width="18" customWidth="1"/>
+    <col min="28" max="28" width="19.109375" customWidth="1"/>
+    <col min="29" max="29" width="18.21875" customWidth="1"/>
+    <col min="30" max="30" width="18.5546875" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" customWidth="1"/>
+    <col min="32" max="32" width="19.77734375" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="47" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE1" s="47" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF1" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="AG1" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="AK1" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL1" s="47" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B2" s="46">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="48">
+        <v>3890.8</v>
+      </c>
+      <c r="D2" s="48">
+        <v>1.716</v>
+      </c>
+      <c r="E2" s="48">
+        <v>7.6</v>
+      </c>
+      <c r="F2" s="49">
+        <v>3.4</v>
+      </c>
+      <c r="G2" s="48">
+        <v>81.2</v>
+      </c>
+      <c r="H2" s="48">
+        <v>18.8</v>
+      </c>
+      <c r="I2" s="49">
+        <v>1938.3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1202.4000000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="L2" s="49">
+        <v>13.9</v>
+      </c>
+      <c r="M2" s="49">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N2" s="49">
+        <v>8.6</v>
+      </c>
+      <c r="O2" s="49">
+        <v>109.2</v>
+      </c>
+      <c r="P2" s="49">
+        <v>329.51499999999999</v>
+      </c>
+      <c r="Q2" s="49">
+        <v>30673.599999999999</v>
+      </c>
+      <c r="R2" s="49">
+        <v>42728</v>
+      </c>
+      <c r="S2" s="49">
+        <v>152.5</v>
+      </c>
+      <c r="T2" s="49">
+        <v>83.3</v>
+      </c>
+      <c r="U2" s="49">
+        <v>531.9</v>
+      </c>
+      <c r="V2" s="50">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W2" s="50">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="X2" s="50">
+        <v>0.112</v>
+      </c>
+      <c r="Y2" s="49">
+        <v>2665218</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>0.48159999999999997</v>
+      </c>
+      <c r="AA2" s="48">
+        <v>1338724</v>
+      </c>
+      <c r="AB2" s="51">
+        <v>19374</v>
+      </c>
+      <c r="AC2" s="52">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="53">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="54">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="AH2" s="54">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="AI2" s="54">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="AJ2" s="54">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+    </row>
+    <row r="3" spans="1:38" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" s="46">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="48">
+        <v>2547.6999999999998</v>
+      </c>
+      <c r="D3" s="49">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="E3" s="49">
+        <v>13.9</v>
+      </c>
+      <c r="F3" s="49">
+        <v>-6.6</v>
+      </c>
+      <c r="G3" s="49">
+        <v>86.5</v>
+      </c>
+      <c r="H3" s="49">
+        <v>13.5</v>
+      </c>
+      <c r="I3" s="49">
+        <v>1883.8</v>
+      </c>
+      <c r="J3" s="55">
+        <v>736.45500000000004</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="L3" s="49">
+        <v>41.8</v>
+      </c>
+      <c r="M3" s="49">
+        <v>5.6</v>
+      </c>
+      <c r="N3" s="49">
+        <v>9.6</v>
+      </c>
+      <c r="O3" s="49">
+        <v>98.7</v>
+      </c>
+      <c r="P3" s="49">
+        <v>414.714</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>31548.799999999999</v>
+      </c>
+      <c r="R3" s="49">
+        <v>29138</v>
+      </c>
+      <c r="S3" s="49">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="T3" s="49">
+        <v>60.4</v>
+      </c>
+      <c r="U3" s="49">
+        <v>335</v>
+      </c>
+      <c r="V3" s="50">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="W3" s="50">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="X3" s="50">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Y3" s="49">
+        <v>1896365</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="AA3" s="48">
+        <v>1203659</v>
+      </c>
+      <c r="AB3" s="51">
+        <v>7281</v>
+      </c>
+      <c r="AC3" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="53">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="54">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="AH3" s="54">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="AI3" s="54">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="AJ3" s="54">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="AK3" s="54">
+        <v>2.98E-2</v>
+      </c>
+      <c r="AL3" s="54"/>
+    </row>
+    <row r="4" spans="1:38" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" s="46">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="48">
+        <v>4222.6949999999997</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1.55</v>
+      </c>
+      <c r="E4" s="49">
+        <v>13.7</v>
+      </c>
+      <c r="F4" s="49">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="G4" s="49">
+        <v>85.9</v>
+      </c>
+      <c r="H4" s="49">
+        <v>14.1</v>
+      </c>
+      <c r="I4" s="56">
+        <v>1032.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="K4" s="49">
+        <v>15.6</v>
+      </c>
+      <c r="L4" s="49">
+        <v>11.2</v>
+      </c>
+      <c r="M4" s="49">
+        <v>7.5</v>
+      </c>
+      <c r="N4" s="49">
+        <v>104.7</v>
+      </c>
+      <c r="O4" s="49">
+        <v>37</v>
+      </c>
+      <c r="P4" s="49">
+        <v>898.2</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>45117</v>
+      </c>
+      <c r="R4" s="49">
+        <v>42728</v>
+      </c>
+      <c r="S4" s="49">
+        <v>114.9</v>
+      </c>
+      <c r="T4" s="49">
+        <v>71.3</v>
+      </c>
+      <c r="U4" s="49">
+        <v>480.1</v>
+      </c>
+      <c r="V4" s="50">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W4" s="50">
+        <v>0.11</v>
+      </c>
+      <c r="X4" s="50">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="Y4" s="49">
+        <v>3301724</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>0.28470000000000001</v>
+      </c>
+      <c r="AA4" s="49">
+        <v>916755</v>
+      </c>
+      <c r="AB4" s="52">
+        <v>23648</v>
+      </c>
+      <c r="AC4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="53">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="53">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="57">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="AH4" s="57">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="AI4" s="57">
+        <v>0.129</v>
+      </c>
+      <c r="AJ4" s="57">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="AK4" s="57">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="AL4" s="47"/>
+    </row>
+    <row r="5" spans="1:38" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B5" s="46">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="48">
+        <v>3395.7979999999998</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1.47</v>
+      </c>
+      <c r="E5" s="49">
+        <v>13</v>
+      </c>
+      <c r="F5" s="49">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="49">
+        <v>80</v>
+      </c>
+      <c r="H5" s="49">
+        <v>20</v>
+      </c>
+      <c r="I5" s="49">
+        <v>1500</v>
+      </c>
+      <c r="J5" s="1">
+        <v>441</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30</v>
+      </c>
+      <c r="L5" s="49">
+        <v>20</v>
+      </c>
+      <c r="M5" s="49">
+        <v>10</v>
+      </c>
+      <c r="N5" s="49">
+        <v>15</v>
+      </c>
+      <c r="O5" s="49">
+        <v>105</v>
+      </c>
+      <c r="P5" s="49">
+        <v>300</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>35000</v>
+      </c>
+      <c r="R5" s="49">
+        <v>40000</v>
+      </c>
+      <c r="S5" s="49">
+        <v>150</v>
+      </c>
+      <c r="T5" s="49">
+        <v>50</v>
+      </c>
+      <c r="U5" s="49">
+        <v>200</v>
+      </c>
+      <c r="V5" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="W5" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="X5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="49">
+        <v>2600000</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0.48</v>
+      </c>
+      <c r="AA5" s="49">
+        <v>1200000</v>
+      </c>
+      <c r="AB5" s="52">
+        <v>50000</v>
+      </c>
+      <c r="AC5" s="52">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="53">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="57">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AH5" s="57">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AI5" s="57">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="60">
+        <v>337.54399999999998</v>
+      </c>
+      <c r="D6" s="60">
+        <v>2.44</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="G6" s="60">
+        <v>55.7</v>
+      </c>
+      <c r="H6" s="60">
+        <v>44.3</v>
+      </c>
+      <c r="L6">
+        <v>17.8</v>
+      </c>
+      <c r="P6" s="60">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="61">
+        <v>39209</v>
+      </c>
+      <c r="X6" s="60">
+        <v>23.5</v>
+      </c>
+      <c r="Z6" s="62">
+        <v>59.1</v>
+      </c>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="64">
+        <v>0.8</v>
+      </c>
+      <c r="AH6" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="AI6" s="65">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJ6" s="65">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AK6" s="65">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AL6" s="66"/>
+    </row>
+    <row r="7" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="C7" s="60">
+        <v>656.43799999999999</v>
+      </c>
+      <c r="D7" s="60">
+        <v>1.45</v>
+      </c>
+      <c r="F7" s="60">
+        <v>-2.9239999999999999</v>
+      </c>
+      <c r="G7" s="60">
+        <v>94.33</v>
+      </c>
+      <c r="H7" s="60">
+        <v>5.67</v>
+      </c>
+      <c r="K7">
+        <v>33.1</v>
+      </c>
+      <c r="L7">
+        <v>9.4</v>
+      </c>
+      <c r="P7" s="60">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="Q7" s="60">
+        <v>67115</v>
+      </c>
+      <c r="X7" s="60">
+        <v>6.7</v>
+      </c>
+      <c r="Z7" s="62" t="s">
+        <v>633</v>
+      </c>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="64">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="AH7" s="65">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AI7" s="65">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+    </row>
+    <row r="8" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
+        <v>634</v>
+      </c>
+      <c r="C8" s="60">
+        <v>1060.8920000000001</v>
+      </c>
+      <c r="D8" s="60">
+        <v>1.26</v>
+      </c>
+      <c r="F8" s="60">
+        <f>-7.833</f>
+        <v>-7.8330000000000002</v>
+      </c>
+      <c r="G8" s="60">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="H8" s="60">
+        <v>31.24</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>10.1</v>
+      </c>
+      <c r="N8">
+        <v>10.6</v>
+      </c>
+      <c r="P8" s="60">
+        <v>231</v>
+      </c>
+      <c r="Q8" s="60">
+        <v>65176</v>
+      </c>
+      <c r="X8" s="60">
+        <v>7.6</v>
+      </c>
+      <c r="Z8" s="62" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="64">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="AH8" s="65">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AI8" s="65">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AJ8" s="65">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+    </row>
+    <row r="9" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" s="67">
+        <v>210.76499999999999</v>
+      </c>
+      <c r="D9" s="67">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F9" s="67">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G9" s="67">
+        <v>69.2</v>
+      </c>
+      <c r="H9" s="67">
+        <v>30.8</v>
+      </c>
+      <c r="K9">
+        <v>22.6</v>
+      </c>
+      <c r="N9">
+        <v>12.6</v>
+      </c>
+      <c r="P9" s="67">
+        <v>180</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>38500</v>
+      </c>
+      <c r="X9" s="67">
+        <v>16.5</v>
+      </c>
+      <c r="Z9" s="62" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="64">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="AH9" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+    </row>
+    <row r="10" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="59" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1121.3</v>
+      </c>
+      <c r="D10" s="60">
+        <v>1.39</v>
+      </c>
+      <c r="F10" s="68">
+        <v>-6.641</v>
+      </c>
+      <c r="G10" s="60">
+        <v>72.7</v>
+      </c>
+      <c r="H10" s="60">
+        <v>27.3</v>
+      </c>
+      <c r="K10">
+        <v>51.6</v>
+      </c>
+      <c r="N10">
+        <v>7.2</v>
+      </c>
+      <c r="P10" s="60">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="60">
+        <v>57178</v>
+      </c>
+      <c r="X10" s="60">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z10" s="62" t="s">
+        <v>639</v>
+      </c>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="64">
+        <v>0.623</v>
+      </c>
+      <c r="AH10" s="65">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AI10" s="65">
+        <v>0.193</v>
+      </c>
+      <c r="AJ10" s="65">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAAE428-1F0C-4DE6-8C94-70DB79B34D27}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
@@ -5020,7 +6100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2742AADD-38C9-42DC-9555-996F7E21DF43}">
   <dimension ref="A1:V64"/>
   <sheetViews>
